--- a/vis/percentages.xlsx
+++ b/vis/percentages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\podis\vis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EFE78E36-4500-4B0B-ACF9-F47B3CBD31B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9198453-A13D-43AC-8A1A-F12E0187EA68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="national_mno_cost_results_techn" sheetId="1" r:id="rId1"/>
@@ -19,34 +19,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$417:$I$429</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="42">
   <si>
     <t>GID_0</t>
   </si>
@@ -177,10 +166,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -662,14 +651,14 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
@@ -1026,7 +1015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6892,11 +6881,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="H418" sqref="H418"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9442,394 +9431,57 @@
       </c>
     </row>
     <row r="408" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H408" s="5" t="e" cm="1">
-        <f t="array" aca="1" ref="H408" ca="1">mean(H4:H65)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
-        <v>0</v>
-      </c>
-      <c r="B417" t="s">
-        <v>1</v>
-      </c>
-      <c r="C417" t="s">
-        <v>2</v>
-      </c>
-      <c r="D417" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E417" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F417" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G417" t="s">
-        <v>39</v>
-      </c>
-      <c r="H417" t="s">
-        <v>40</v>
-      </c>
-      <c r="I417" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
-        <v>26</v>
-      </c>
-      <c r="B418" t="s">
-        <v>27</v>
-      </c>
-      <c r="C418" t="s">
-        <v>30</v>
-      </c>
-      <c r="D418" s="1">
-        <v>4038615555.2438402</v>
-      </c>
-      <c r="E418" s="1">
-        <v>544019583.31242597</v>
-      </c>
-      <c r="F418" s="1">
-        <v>1558781845.24384</v>
-      </c>
-      <c r="G418">
-        <v>6141416983.800106</v>
-      </c>
-      <c r="H418" s="5">
-        <v>8.8582095100763638</v>
-      </c>
-      <c r="I418" s="5">
-        <v>25.38146895668558</v>
-      </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
-        <v>34</v>
-      </c>
-      <c r="B419" t="s">
-        <v>27</v>
-      </c>
-      <c r="C419" t="s">
-        <v>30</v>
-      </c>
-      <c r="D419" s="1">
-        <v>11165637878.7955</v>
-      </c>
-      <c r="E419" s="1">
-        <v>892558692.79804599</v>
-      </c>
-      <c r="F419" s="1">
-        <v>6957670218.7955103</v>
-      </c>
-      <c r="G419">
-        <v>19015866790.389057</v>
-      </c>
-      <c r="H419" s="5">
-        <v>4.6937576006220256</v>
-      </c>
-      <c r="I419" s="5">
-        <v>36.58876187706592</v>
-      </c>
-    </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
-        <v>35</v>
-      </c>
-      <c r="B420" t="s">
-        <v>27</v>
-      </c>
-      <c r="C420" t="s">
-        <v>30</v>
-      </c>
-      <c r="D420" s="1">
-        <v>13107332642.212</v>
-      </c>
-      <c r="E420" s="1">
-        <v>241411600.15015</v>
-      </c>
-      <c r="F420" s="1">
-        <v>11825477548.212</v>
-      </c>
-      <c r="G420">
-        <v>25174221790.57415</v>
-      </c>
-      <c r="H420" s="5">
-        <v>0.95896350702900557</v>
-      </c>
-      <c r="I420" s="5">
-        <v>46.974550580307316</v>
-      </c>
-    </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
-        <v>36</v>
-      </c>
-      <c r="B421" t="s">
-        <v>27</v>
-      </c>
-      <c r="C421" t="s">
-        <v>30</v>
-      </c>
-      <c r="D421" s="1">
-        <v>3836853615.1469998</v>
-      </c>
-      <c r="E421" s="1">
-        <v>501816495.46083498</v>
-      </c>
-      <c r="F421" s="1">
-        <v>2340036471.1469998</v>
-      </c>
-      <c r="G421">
-        <v>6678706581.7548351</v>
-      </c>
-      <c r="H421" s="5">
-        <v>7.5136778254597667</v>
-      </c>
-      <c r="I421" s="5">
-        <v>35.037270203479331</v>
-      </c>
-    </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
-        <v>37</v>
-      </c>
-      <c r="B422" t="s">
-        <v>27</v>
-      </c>
-      <c r="C422" t="s">
-        <v>30</v>
-      </c>
-      <c r="D422" s="1">
-        <v>11054110693.6413</v>
-      </c>
-      <c r="E422" s="1">
-        <v>759854275.38770497</v>
-      </c>
-      <c r="F422" s="1">
-        <v>8111651063.6413603</v>
-      </c>
-      <c r="G422">
-        <v>19925616032.670364</v>
-      </c>
-      <c r="H422" s="5">
-        <v>3.8134543702028361</v>
-      </c>
-      <c r="I422" s="5">
-        <v>40.709662628956437</v>
-      </c>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
-        <v>38</v>
-      </c>
-      <c r="B423" t="s">
-        <v>27</v>
-      </c>
-      <c r="C423" t="s">
-        <v>30</v>
-      </c>
-      <c r="D423" s="1">
-        <v>4528147952.8435097</v>
-      </c>
-      <c r="E423" s="1">
-        <v>484951608.86244601</v>
-      </c>
-      <c r="F423" s="1">
-        <v>2412012351.8435001</v>
-      </c>
-      <c r="G423">
-        <v>7425111913.5494556</v>
-      </c>
-      <c r="H423" s="5">
-        <v>6.5312363572257945</v>
-      </c>
-      <c r="I423" s="5">
-        <v>32.484525215600101</v>
-      </c>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
-        <v>26</v>
-      </c>
-      <c r="B424" t="s">
-        <v>27</v>
-      </c>
-      <c r="C424" t="s">
-        <v>31</v>
-      </c>
-      <c r="D424" s="1">
-        <v>2201217006.1665602</v>
-      </c>
-      <c r="E424" s="1">
-        <v>717218443.09303403</v>
-      </c>
-      <c r="F424" s="1">
-        <v>0</v>
-      </c>
-      <c r="G424">
-        <v>2918435449.259594</v>
-      </c>
-      <c r="H424" s="5">
-        <v>24.575443094860709</v>
-      </c>
-      <c r="I424" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
-        <v>34</v>
-      </c>
-      <c r="B425" t="s">
-        <v>27</v>
-      </c>
-      <c r="C425" t="s">
-        <v>31</v>
-      </c>
-      <c r="D425" s="1">
-        <v>6493382749.0325699</v>
-      </c>
-      <c r="E425" s="1">
-        <v>1108947627.1610899</v>
-      </c>
-      <c r="F425" s="1">
-        <v>2285415089.0325699</v>
-      </c>
-      <c r="G425">
-        <v>9887745465.2262306</v>
-      </c>
-      <c r="H425" s="5">
-        <v>11.215373929892291</v>
-      </c>
-      <c r="I425" s="5">
-        <v>23.113611662739945</v>
-      </c>
-    </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
-        <v>35</v>
-      </c>
-      <c r="B426" t="s">
-        <v>27</v>
-      </c>
-      <c r="C426" t="s">
-        <v>31</v>
-      </c>
-      <c r="D426" s="1">
-        <v>3962480595.34691</v>
-      </c>
-      <c r="E426" s="1">
-        <v>329434774.52674901</v>
-      </c>
-      <c r="F426" s="1">
-        <v>2680625501.34691</v>
-      </c>
-      <c r="G426">
-        <v>6972540871.2205696</v>
-      </c>
-      <c r="H426" s="5">
-        <v>4.7247449762037785</v>
-      </c>
-      <c r="I426" s="5">
-        <v>38.445461286735437</v>
-      </c>
-    </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
-        <v>36</v>
-      </c>
-      <c r="B427" t="s">
-        <v>27</v>
-      </c>
-      <c r="C427" t="s">
-        <v>31</v>
-      </c>
-      <c r="D427" s="1">
-        <v>1746635461.5205801</v>
-      </c>
-      <c r="E427" s="1">
-        <v>654611893.91087198</v>
-      </c>
-      <c r="F427" s="1">
-        <v>249818317.52058399</v>
-      </c>
-      <c r="G427">
-        <v>2651065672.9520359</v>
-      </c>
-      <c r="H427" s="5">
-        <v>24.692405797022118</v>
-      </c>
-      <c r="I427" s="5">
-        <v>9.4233168219633079</v>
-      </c>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
-        <v>37</v>
-      </c>
-      <c r="B428" t="s">
-        <v>27</v>
-      </c>
-      <c r="C428" t="s">
-        <v>31</v>
-      </c>
-      <c r="D428" s="1">
-        <v>5159949939.8168697</v>
-      </c>
-      <c r="E428" s="1">
-        <v>914201155.11371505</v>
-      </c>
-      <c r="F428" s="1">
-        <v>2217490309.8168702</v>
-      </c>
-      <c r="G428">
-        <v>8291641404.7474556</v>
-      </c>
-      <c r="H428" s="5">
-        <v>11.025575160429403</v>
-      </c>
-      <c r="I428" s="5">
-        <v>26.743683205441393</v>
-      </c>
-    </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A429" t="s">
-        <v>38</v>
-      </c>
-      <c r="B429" t="s">
-        <v>27</v>
-      </c>
-      <c r="C429" t="s">
-        <v>31</v>
-      </c>
-      <c r="D429" s="1">
-        <v>2842594097.8155398</v>
-      </c>
-      <c r="E429" s="1">
-        <v>564732599.65007198</v>
-      </c>
-      <c r="F429" s="1">
-        <v>726458496.81554198</v>
-      </c>
-      <c r="G429">
-        <v>4133785194.2811537</v>
-      </c>
-      <c r="H429" s="5">
-        <v>13.661391995678585</v>
-      </c>
-      <c r="I429" s="5">
-        <v>17.573687617357432</v>
-      </c>
+      <c r="H408" s="5"/>
+    </row>
+    <row r="418" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H418" s="5"/>
+      <c r="I418" s="5"/>
+    </row>
+    <row r="419" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H419" s="5"/>
+      <c r="I419" s="5"/>
+    </row>
+    <row r="420" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H420" s="5"/>
+      <c r="I420" s="5"/>
+    </row>
+    <row r="421" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H421" s="5"/>
+      <c r="I421" s="5"/>
+    </row>
+    <row r="422" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H422" s="5"/>
+      <c r="I422" s="5"/>
+    </row>
+    <row r="423" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H423" s="5"/>
+      <c r="I423" s="5"/>
+    </row>
+    <row r="424" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H424" s="5"/>
+      <c r="I424" s="5"/>
+    </row>
+    <row r="425" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H425" s="5"/>
+      <c r="I425" s="5"/>
+    </row>
+    <row r="426" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H426" s="5"/>
+      <c r="I426" s="5"/>
+    </row>
+    <row r="427" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H427" s="5"/>
+      <c r="I427" s="5"/>
+    </row>
+    <row r="428" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H428" s="5"/>
+      <c r="I428" s="5"/>
+    </row>
+    <row r="429" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H429" s="5"/>
+      <c r="I429" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A417:I429">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A418:I429">
-      <sortCondition ref="C417:C429"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>